--- a/data structure.xlsx
+++ b/data structure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="46">
   <si>
     <t>date</t>
   </si>
@@ -117,9 +117,6 @@
     <t>bad</t>
   </si>
   <si>
-    <t>17.17.2023</t>
-  </si>
-  <si>
     <t>SPIDER 11</t>
   </si>
   <si>
@@ -136,6 +133,27 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>SPIDER 12</t>
+  </si>
+  <si>
+    <t>low visibility, 50 uW</t>
+  </si>
+  <si>
+    <t>high visibility, 70 uW</t>
+  </si>
+  <si>
+    <t>high visibility, 50 uW</t>
+  </si>
+  <si>
+    <t>low visibility, 70 uW</t>
+  </si>
+  <si>
+    <t>SPIDER 13</t>
+  </si>
+  <si>
+    <t>SPIDER 14</t>
   </si>
 </sst>
 </file>
@@ -329,17 +347,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -348,12 +360,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -362,12 +368,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -409,15 +409,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -431,6 +422,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,488 +813,630 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="38">
         <v>45078</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="36" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12">
+      <c r="A3" s="43"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="8">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="37" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12">
+      <c r="A4" s="43"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="8">
         <v>3</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="37" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12">
+      <c r="A5" s="43"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="8">
         <v>4</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="37" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12">
+      <c r="A6" s="43"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="8">
         <v>5</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18">
+      <c r="A7" s="39"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="12">
         <v>6</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22">
+      <c r="A8" s="16">
         <v>45092</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="18">
         <v>7</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="43" t="s">
+      <c r="G8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="34" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="38">
         <v>45103</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>8</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="45" t="s">
+      <c r="E9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="36" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18">
+      <c r="A10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="12">
         <v>9</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="20" t="s">
+      <c r="E10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="42" t="s">
+      <c r="G10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="38">
         <v>45113</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>10</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="30" t="s">
+      <c r="E11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12">
+      <c r="A12" s="43"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="8">
         <v>11</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="15"/>
+      <c r="E12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12">
+      <c r="A13" s="43"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="8">
         <v>12</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="32" t="s">
+      <c r="E13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="15"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18">
+      <c r="A14" s="39"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="12">
         <v>13</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="33" t="s">
+      <c r="E14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="21"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="38">
         <v>45114</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>14</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="38" t="s">
+      <c r="E15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="29" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="12">
+      <c r="A16" s="39"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="8">
         <v>15</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="41" t="s">
+      <c r="E16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="38">
+        <v>45124</v>
+      </c>
+      <c r="B17" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="4">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="8">
+        <v>18</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="6">
-        <v>17</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="E18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="46"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="8">
+        <v>19</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="47"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="12">
+        <v>20</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="52">
+        <v>45138</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="45">
         <v>21</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="45" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12">
-        <v>18</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12">
-        <v>19</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="36"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18">
-        <v>20</v>
-      </c>
-      <c r="D20" s="19" t="s">
+      <c r="D21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="53"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="45">
+        <v>22</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="53"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="45">
+        <v>23</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="44" t="s">
-        <v>38</v>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="45">
+        <v>24</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="53">
+        <v>45146</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="53"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="44">
+        <v>45150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C28" s="45">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A21:A24"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
